--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smarotta\PycharmProjects\generative_answer_traceback\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB5B30-AF1D-4C7E-9DB2-C7035CBC0C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED05103-923C-48EA-BE65-B92A2EBF5951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,26 +351,35 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -380,20 +389,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -402,37 +402,7 @@
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -460,36 +430,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -772,17 +712,17 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="9" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
-    <col min="3" max="4" width="58.28515625" style="10"/>
-    <col min="5" max="5" width="7" style="17" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" style="18"/>
+    <col min="1" max="1" width="16.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="58.28515625" style="8"/>
+    <col min="5" max="5" width="7" style="10" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" style="11"/>
     <col min="7" max="16384" width="58.28515625" style="1"/>
   </cols>
   <sheetData>
@@ -799,273 +739,273 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="132.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="154.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="17">
+      <c r="E19" s="10">
         <f>(SUM(E2:E18)/17)*100/3</f>
         <v>86.274509803921561</v>
       </c>
     </row>
     <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1048576" s="17">
+      <c r="E1048576" s="10">
         <f>SUM(E2:E1048575)</f>
         <v>130.27450980392155</v>
       </c>
@@ -1079,14 +1019,14 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
